--- a/表格/haha.xlsx
+++ b/表格/haha.xlsx
@@ -531,27 +531,23 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>专一</t>
+          <t>矿二</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+          <t>古冶国义</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" s="2" t="n">
-        <v>44225.55694444444</v>
+        <v>44228.51527777778</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -560,27 +556,35 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" s="2" t="n">
-        <v>44225.59861111111</v>
+        <v>44228.73125</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>44225.82222222222</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+        <v>44228.90625</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>单线作业,16:00-17:00取料机故障</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>到发线满</t>
+        </is>
+      </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>5.18</v>
       </c>
       <c r="S2" t="n">
-        <v>5.37</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>专二</t>
+          <t>矿二</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -588,15 +592,11 @@
           <t>首钢沙河驿</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" s="2" t="n">
-        <v>44225.51527777778</v>
+        <v>44228.43194444444</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -605,18 +605,26 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" s="2" t="n">
-        <v>44225.80555555555</v>
+        <v>44228.64027777778</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>44225.09861111111</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+        <v>44228.81458333333</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>料年</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>无空车</t>
+        </is>
+      </c>
       <c r="R3" t="n">
-        <v>6.97</v>
+        <v>5</v>
       </c>
       <c r="S3" t="n">
-        <v>7.030000000000001</v>
+        <v>4.18</v>
       </c>
     </row>
   </sheetData>
